--- a/Funções Biométricas (Com Fórmulas).xlsx
+++ b/Funções Biométricas (Com Fórmulas).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72932a8949399b21/Minha Pasta/Machine Learning Projects/Adherence_Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{F70D1D54-1652-469B-B6C0-3E1F1649D32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{305CD0DF-42CD-4D07-BC6C-31B0739658C0}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{F70D1D54-1652-469B-B6C0-3E1F1649D32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15F8620E-248F-4125-9DBD-B2E9D91E9475}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qx" sheetId="10" r:id="rId1"/>
@@ -1686,7 +1686,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="251">
   <si>
     <t>Table Manager - SOA</t>
   </si>
@@ -2742,6 +2742,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3030,15 +3034,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E60CE3-4608-42AA-A0D4-FB9BA658348C}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:DC128"/>
+  <dimension ref="A1:CW128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="CC18" sqref="CC18"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" workbookViewId="0">
+      <selection activeCell="CX5" sqref="CX1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:107">
+    <row r="1" spans="1:101">
       <c r="A1" t="s">
         <v>146</v>
       </c>
@@ -3342,26 +3346,8 @@
       <c r="CW1" t="s">
         <v>182</v>
       </c>
-      <c r="CX1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>189</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>183</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>188</v>
-      </c>
     </row>
-    <row r="2" spans="1:107">
+    <row r="2" spans="1:101">
       <c r="A2" t="s">
         <v>250</v>
       </c>
@@ -3665,26 +3651,8 @@
       <c r="CW2">
         <v>0</v>
       </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DB2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:107">
+    <row r="3" spans="1:101">
       <c r="A3" t="s">
         <v>250</v>
       </c>
@@ -3988,26 +3956,8 @@
       <c r="CW3">
         <v>0</v>
       </c>
-      <c r="CX3">
-        <v>0</v>
-      </c>
-      <c r="CY3">
-        <v>0</v>
-      </c>
-      <c r="CZ3">
-        <v>0</v>
-      </c>
-      <c r="DA3">
-        <v>0</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:107">
+    <row r="4" spans="1:101">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -4311,26 +4261,8 @@
       <c r="CW4">
         <v>0</v>
       </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4">
-        <v>0</v>
-      </c>
-      <c r="DA4">
-        <v>0</v>
-      </c>
-      <c r="DB4">
-        <v>0</v>
-      </c>
-      <c r="DC4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:107">
+    <row r="5" spans="1:101">
       <c r="A5" t="s">
         <v>250</v>
       </c>
@@ -4634,26 +4566,8 @@
       <c r="CW5">
         <v>0</v>
       </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-      <c r="CY5">
-        <v>0</v>
-      </c>
-      <c r="CZ5">
-        <v>0</v>
-      </c>
-      <c r="DA5">
-        <v>0</v>
-      </c>
-      <c r="DB5">
-        <v>0</v>
-      </c>
-      <c r="DC5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:107">
+    <row r="6" spans="1:101">
       <c r="A6" t="s">
         <v>250</v>
       </c>
@@ -4957,26 +4871,8 @@
       <c r="CW6">
         <v>0</v>
       </c>
-      <c r="CX6">
-        <v>0</v>
-      </c>
-      <c r="CY6">
-        <v>0</v>
-      </c>
-      <c r="CZ6">
-        <v>0</v>
-      </c>
-      <c r="DA6">
-        <v>0</v>
-      </c>
-      <c r="DB6">
-        <v>0</v>
-      </c>
-      <c r="DC6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:107">
+    <row r="7" spans="1:101">
       <c r="A7" t="s">
         <v>250</v>
       </c>
@@ -5280,26 +5176,8 @@
       <c r="CW7">
         <v>0</v>
       </c>
-      <c r="CX7">
-        <v>0</v>
-      </c>
-      <c r="CY7">
-        <v>0</v>
-      </c>
-      <c r="CZ7">
-        <v>0</v>
-      </c>
-      <c r="DA7">
-        <v>0</v>
-      </c>
-      <c r="DB7">
-        <v>0</v>
-      </c>
-      <c r="DC7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:107">
+    <row r="8" spans="1:101">
       <c r="A8" t="s">
         <v>250</v>
       </c>
@@ -5603,26 +5481,8 @@
       <c r="CW8">
         <v>0</v>
       </c>
-      <c r="CX8">
-        <v>0</v>
-      </c>
-      <c r="CY8">
-        <v>0</v>
-      </c>
-      <c r="CZ8">
-        <v>0</v>
-      </c>
-      <c r="DA8">
-        <v>0</v>
-      </c>
-      <c r="DB8">
-        <v>0</v>
-      </c>
-      <c r="DC8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:107">
+    <row r="9" spans="1:101">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -5926,26 +5786,8 @@
       <c r="CW9">
         <v>0</v>
       </c>
-      <c r="CX9">
-        <v>0</v>
-      </c>
-      <c r="CY9">
-        <v>0</v>
-      </c>
-      <c r="CZ9">
-        <v>0</v>
-      </c>
-      <c r="DA9">
-        <v>0</v>
-      </c>
-      <c r="DB9">
-        <v>0</v>
-      </c>
-      <c r="DC9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:107">
+    <row r="10" spans="1:101">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -6249,26 +6091,8 @@
       <c r="CW10">
         <v>0</v>
       </c>
-      <c r="CX10">
-        <v>0</v>
-      </c>
-      <c r="CY10">
-        <v>0</v>
-      </c>
-      <c r="CZ10">
-        <v>0</v>
-      </c>
-      <c r="DA10">
-        <v>0</v>
-      </c>
-      <c r="DB10">
-        <v>0</v>
-      </c>
-      <c r="DC10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:107">
+    <row r="11" spans="1:101">
       <c r="A11" t="s">
         <v>250</v>
       </c>
@@ -6572,26 +6396,8 @@
       <c r="CW11">
         <v>0</v>
       </c>
-      <c r="CX11">
-        <v>0</v>
-      </c>
-      <c r="CY11">
-        <v>0</v>
-      </c>
-      <c r="CZ11">
-        <v>0</v>
-      </c>
-      <c r="DA11">
-        <v>0</v>
-      </c>
-      <c r="DB11">
-        <v>0</v>
-      </c>
-      <c r="DC11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:107">
+    <row r="12" spans="1:101">
       <c r="A12" t="s">
         <v>250</v>
       </c>
@@ -6895,26 +6701,8 @@
       <c r="CW12">
         <v>0</v>
       </c>
-      <c r="CX12">
-        <v>0</v>
-      </c>
-      <c r="CY12">
-        <v>0</v>
-      </c>
-      <c r="CZ12">
-        <v>0</v>
-      </c>
-      <c r="DA12">
-        <v>0</v>
-      </c>
-      <c r="DB12">
-        <v>0</v>
-      </c>
-      <c r="DC12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:107">
+    <row r="13" spans="1:101">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -7218,26 +7006,8 @@
       <c r="CW13">
         <v>0</v>
       </c>
-      <c r="CX13">
-        <v>0</v>
-      </c>
-      <c r="CY13">
-        <v>0</v>
-      </c>
-      <c r="CZ13">
-        <v>0</v>
-      </c>
-      <c r="DA13">
-        <v>0</v>
-      </c>
-      <c r="DB13">
-        <v>0</v>
-      </c>
-      <c r="DC13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:107">
+    <row r="14" spans="1:101">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -7541,26 +7311,8 @@
       <c r="CW14">
         <v>0</v>
       </c>
-      <c r="CX14">
-        <v>0</v>
-      </c>
-      <c r="CY14">
-        <v>0</v>
-      </c>
-      <c r="CZ14">
-        <v>0</v>
-      </c>
-      <c r="DA14">
-        <v>0</v>
-      </c>
-      <c r="DB14">
-        <v>0</v>
-      </c>
-      <c r="DC14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:107">
+    <row r="15" spans="1:101">
       <c r="A15" t="s">
         <v>250</v>
       </c>
@@ -7864,26 +7616,8 @@
       <c r="CW15">
         <v>0</v>
       </c>
-      <c r="CX15">
-        <v>0</v>
-      </c>
-      <c r="CY15">
-        <v>0</v>
-      </c>
-      <c r="CZ15">
-        <v>0</v>
-      </c>
-      <c r="DA15">
-        <v>0</v>
-      </c>
-      <c r="DB15">
-        <v>0</v>
-      </c>
-      <c r="DC15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:107">
+    <row r="16" spans="1:101">
       <c r="A16" t="s">
         <v>250</v>
       </c>
@@ -8187,26 +7921,8 @@
       <c r="CW16">
         <v>0</v>
       </c>
-      <c r="CX16">
-        <v>0</v>
-      </c>
-      <c r="CY16">
-        <v>0</v>
-      </c>
-      <c r="CZ16">
-        <v>0</v>
-      </c>
-      <c r="DA16">
-        <v>0</v>
-      </c>
-      <c r="DB16">
-        <v>0</v>
-      </c>
-      <c r="DC16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:107">
+    <row r="17" spans="1:101">
       <c r="A17" t="s">
         <v>250</v>
       </c>
@@ -8510,26 +8226,8 @@
       <c r="CW17">
         <v>0</v>
       </c>
-      <c r="CX17">
-        <v>0</v>
-      </c>
-      <c r="CY17">
-        <v>0</v>
-      </c>
-      <c r="CZ17">
-        <v>0</v>
-      </c>
-      <c r="DA17">
-        <v>0</v>
-      </c>
-      <c r="DB17">
-        <v>0</v>
-      </c>
-      <c r="DC17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:107">
+    <row r="18" spans="1:101">
       <c r="A18" t="s">
         <v>250</v>
       </c>
@@ -8833,26 +8531,8 @@
       <c r="CW18">
         <v>0</v>
       </c>
-      <c r="CX18" s="47">
-        <v>6566</v>
-      </c>
-      <c r="CY18">
-        <v>4</v>
-      </c>
-      <c r="CZ18">
-        <v>0</v>
-      </c>
-      <c r="DA18">
-        <v>6.32</v>
-      </c>
-      <c r="DB18">
-        <v>6.87</v>
-      </c>
-      <c r="DC18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:107">
+    <row r="19" spans="1:101">
       <c r="A19" t="s">
         <v>250</v>
       </c>
@@ -9156,26 +8836,8 @@
       <c r="CW19">
         <v>0</v>
       </c>
-      <c r="CX19">
-        <v>6.44</v>
-      </c>
-      <c r="CY19" s="47">
-        <v>4065</v>
-      </c>
-      <c r="CZ19">
-        <v>0</v>
-      </c>
-      <c r="DA19">
-        <v>6.16</v>
-      </c>
-      <c r="DB19">
-        <v>6.65</v>
-      </c>
-      <c r="DC19">
-        <v>6.51</v>
-      </c>
     </row>
-    <row r="20" spans="1:107">
+    <row r="20" spans="1:101">
       <c r="A20" t="s">
         <v>250</v>
       </c>
@@ -9479,26 +9141,8 @@
       <c r="CW20">
         <v>0</v>
       </c>
-      <c r="CX20" s="47">
-        <v>6216</v>
-      </c>
-      <c r="CY20">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="CZ20">
-        <v>0</v>
-      </c>
-      <c r="DA20">
-        <v>6.02</v>
-      </c>
-      <c r="DB20">
-        <v>6.36</v>
-      </c>
-      <c r="DC20">
-        <v>6.61</v>
-      </c>
     </row>
-    <row r="21" spans="1:107">
+    <row r="21" spans="1:101">
       <c r="A21" t="s">
         <v>250</v>
       </c>
@@ -9802,26 +9446,8 @@
       <c r="CW21">
         <v>0</v>
       </c>
-      <c r="CX21" s="47">
-        <v>5913</v>
-      </c>
-      <c r="CY21">
-        <v>4.25</v>
-      </c>
-      <c r="CZ21">
-        <v>0</v>
-      </c>
-      <c r="DA21">
-        <v>5.89</v>
-      </c>
-      <c r="DB21">
-        <v>5.9</v>
-      </c>
-      <c r="DC21">
-        <v>6.69</v>
-      </c>
     </row>
-    <row r="22" spans="1:107">
+    <row r="22" spans="1:101">
       <c r="A22" t="s">
         <v>250</v>
       </c>
@@ -10125,26 +9751,8 @@
       <c r="CW22">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="CX22" s="47">
-        <v>5698</v>
-      </c>
-      <c r="CY22" s="47">
-        <v>4365</v>
-      </c>
-      <c r="CZ22">
-        <v>4.5</v>
-      </c>
-      <c r="DA22">
-        <v>5.78</v>
-      </c>
-      <c r="DB22">
-        <v>5.39</v>
-      </c>
-      <c r="DC22">
-        <v>6.77</v>
-      </c>
     </row>
-    <row r="23" spans="1:107">
+    <row r="23" spans="1:101">
       <c r="A23" t="s">
         <v>250</v>
       </c>
@@ -10448,26 +10056,8 @@
       <c r="CW23">
         <v>2.3000000000000001E-4</v>
       </c>
-      <c r="CX23" s="47">
-        <v>5516</v>
-      </c>
-      <c r="CY23" s="47">
-        <v>4495</v>
-      </c>
-      <c r="CZ23">
-        <v>4.55</v>
-      </c>
-      <c r="DA23">
-        <v>5.68</v>
-      </c>
-      <c r="DB23">
-        <v>5.12</v>
-      </c>
-      <c r="DC23">
-        <v>6.87</v>
-      </c>
     </row>
-    <row r="24" spans="1:107">
+    <row r="24" spans="1:101">
       <c r="A24" t="s">
         <v>250</v>
       </c>
@@ -10771,26 +10361,8 @@
       <c r="CW24">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="CX24" s="47">
-        <v>5411</v>
-      </c>
-      <c r="CY24" s="47">
-        <v>4604</v>
-      </c>
-      <c r="CZ24">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="DA24">
-        <v>5.6</v>
-      </c>
-      <c r="DB24">
-        <v>4.96</v>
-      </c>
-      <c r="DC24">
-        <v>6.97</v>
-      </c>
     </row>
-    <row r="25" spans="1:107">
+    <row r="25" spans="1:101">
       <c r="A25" t="s">
         <v>250</v>
       </c>
@@ -11094,26 +10666,8 @@
       <c r="CW25">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="CX25" s="47">
-        <v>5383</v>
-      </c>
-      <c r="CY25">
-        <v>5</v>
-      </c>
-      <c r="CZ25">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="DA25">
-        <v>5.53</v>
-      </c>
-      <c r="DB25">
-        <v>4.88</v>
-      </c>
-      <c r="DC25">
-        <v>7.08</v>
-      </c>
     </row>
-    <row r="26" spans="1:107">
+    <row r="26" spans="1:101">
       <c r="A26" t="s">
         <v>250</v>
       </c>
@@ -11417,26 +10971,8 @@
       <c r="CW26">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="CX26" s="47">
-        <v>5383</v>
-      </c>
-      <c r="CY26" s="47">
-        <v>5276</v>
-      </c>
-      <c r="CZ26">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="DA26">
-        <v>5.47</v>
-      </c>
-      <c r="DB26">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="DC26">
-        <v>7.19</v>
-      </c>
     </row>
-    <row r="27" spans="1:107">
+    <row r="27" spans="1:101">
       <c r="A27" t="s">
         <v>250</v>
       </c>
@@ -11740,26 +11276,8 @@
       <c r="CW27">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="CX27" s="47">
-        <v>5411</v>
-      </c>
-      <c r="CY27" s="47">
-        <v>5448</v>
-      </c>
-      <c r="CZ27">
-        <v>4.74</v>
-      </c>
-      <c r="DA27">
-        <v>5.44</v>
-      </c>
-      <c r="DB27">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="DC27">
-        <v>7.32</v>
-      </c>
     </row>
-    <row r="28" spans="1:107">
+    <row r="28" spans="1:101">
       <c r="A28" t="s">
         <v>250</v>
       </c>
@@ -12063,26 +11581,8 @@
       <c r="CW28">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="CX28" s="47">
-        <v>5432</v>
-      </c>
-      <c r="CY28" s="47">
-        <v>5532</v>
-      </c>
-      <c r="CZ28">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="DA28">
-        <v>5.42</v>
-      </c>
-      <c r="DB28">
-        <v>4.88</v>
-      </c>
-      <c r="DC28">
-        <v>7.15</v>
-      </c>
     </row>
-    <row r="29" spans="1:107">
+    <row r="29" spans="1:101">
       <c r="A29" t="s">
         <v>250</v>
       </c>
@@ -12386,26 +11886,8 @@
       <c r="CW29">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="CX29" s="47">
-        <v>5453</v>
-      </c>
-      <c r="CY29" s="47">
-        <v>5544</v>
-      </c>
-      <c r="CZ29">
-        <v>4.93</v>
-      </c>
-      <c r="DA29">
-        <v>5.41</v>
-      </c>
-      <c r="DB29">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="DC29">
-        <v>7.59</v>
-      </c>
     </row>
-    <row r="30" spans="1:107">
+    <row r="30" spans="1:101">
       <c r="A30" t="s">
         <v>250</v>
       </c>
@@ -12709,26 +12191,8 @@
       <c r="CW30">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="CX30" s="47">
-        <v>5509</v>
-      </c>
-      <c r="CY30" s="47">
-        <v>5551</v>
-      </c>
-      <c r="CZ30">
-        <v>5</v>
-      </c>
-      <c r="DA30">
-        <v>5.42</v>
-      </c>
-      <c r="DB30">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="DC30">
-        <v>7.74</v>
-      </c>
     </row>
-    <row r="31" spans="1:107">
+    <row r="31" spans="1:101">
       <c r="A31" t="s">
         <v>250</v>
       </c>
@@ -13032,26 +12496,8 @@
       <c r="CW31">
         <v>6.6E-4</v>
       </c>
-      <c r="CX31" s="47">
-        <v>5579</v>
-      </c>
-      <c r="CY31" s="47">
-        <v>5556</v>
-      </c>
-      <c r="CZ31">
-        <v>5.08</v>
-      </c>
-      <c r="DA31">
-        <v>5.44</v>
-      </c>
-      <c r="DB31">
-        <v>5.25</v>
-      </c>
-      <c r="DC31">
-        <v>7.9</v>
-      </c>
     </row>
-    <row r="32" spans="1:107">
+    <row r="32" spans="1:101">
       <c r="A32" t="s">
         <v>250</v>
       </c>
@@ -13355,26 +12801,8 @@
       <c r="CW32">
         <v>7.9000000000000001E-4</v>
       </c>
-      <c r="CX32" s="47">
-        <v>5656</v>
-      </c>
-      <c r="CY32" s="47">
-        <v>5562</v>
-      </c>
-      <c r="CZ32">
-        <v>5.16</v>
-      </c>
-      <c r="DA32">
-        <v>5.18</v>
-      </c>
-      <c r="DB32">
-        <v>5.41</v>
-      </c>
-      <c r="DC32">
-        <v>8.07</v>
-      </c>
     </row>
-    <row r="33" spans="1:107">
+    <row r="33" spans="1:101">
       <c r="A33" t="s">
         <v>250</v>
       </c>
@@ -13678,26 +13106,8 @@
       <c r="CW33">
         <v>8.4999999999999995E-4</v>
       </c>
-      <c r="CX33" s="47">
-        <v>5751</v>
-      </c>
-      <c r="CY33" s="47">
-        <v>5569</v>
-      </c>
-      <c r="CZ33">
-        <v>5.26</v>
-      </c>
-      <c r="DA33">
-        <v>5.53</v>
-      </c>
-      <c r="DB33">
-        <v>5.61</v>
-      </c>
-      <c r="DC33">
-        <v>8.2100000000000009</v>
-      </c>
     </row>
-    <row r="34" spans="1:107">
+    <row r="34" spans="1:101">
       <c r="A34" t="s">
         <v>250</v>
       </c>
@@ -14001,26 +13411,8 @@
       <c r="CW34">
         <v>1.07E-3</v>
       </c>
-      <c r="CX34" s="47">
-        <v>5859</v>
-      </c>
-      <c r="CY34" s="47">
-        <v>5576</v>
-      </c>
-      <c r="CZ34">
-        <v>5.3</v>
-      </c>
-      <c r="DA34">
-        <v>5.6</v>
-      </c>
-      <c r="DB34">
-        <v>5.83</v>
-      </c>
-      <c r="DC34">
-        <v>8.43</v>
-      </c>
     </row>
-    <row r="35" spans="1:107">
+    <row r="35" spans="1:101">
       <c r="A35" t="s">
         <v>250</v>
       </c>
@@ -14324,26 +13716,8 @@
       <c r="CW35">
         <v>1.31E-3</v>
       </c>
-      <c r="CX35" s="47">
-        <v>5957</v>
-      </c>
-      <c r="CY35" s="47">
-        <v>5584</v>
-      </c>
-      <c r="CZ35">
-        <v>5.5</v>
-      </c>
-      <c r="DA35">
-        <v>5.68</v>
-      </c>
-      <c r="DB35">
-        <v>6.05</v>
-      </c>
-      <c r="DC35">
-        <v>8.6199999999999992</v>
-      </c>
     </row>
-    <row r="36" spans="1:107">
+    <row r="36" spans="1:101">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -14647,26 +14021,8 @@
       <c r="CW36">
         <v>1.5E-3</v>
       </c>
-      <c r="CX36" s="47">
-        <v>6069</v>
-      </c>
-      <c r="CY36" s="47">
-        <v>5593</v>
-      </c>
-      <c r="CZ36">
-        <v>5.7</v>
-      </c>
-      <c r="DA36">
-        <v>5.78</v>
-      </c>
-      <c r="DB36">
-        <v>6.27</v>
-      </c>
-      <c r="DC36">
-        <v>8.83</v>
-      </c>
     </row>
-    <row r="37" spans="1:107">
+    <row r="37" spans="1:101">
       <c r="A37" t="s">
         <v>250</v>
       </c>
@@ -14970,26 +14326,8 @@
       <c r="CW37">
         <v>1.81E-3</v>
       </c>
-      <c r="CX37" s="47">
-        <v>6195</v>
-      </c>
-      <c r="CY37" s="47">
-        <v>5607</v>
-      </c>
-      <c r="CZ37">
-        <v>5.91</v>
-      </c>
-      <c r="DA37">
-        <v>5.9</v>
-      </c>
-      <c r="DB37">
-        <v>6.48</v>
-      </c>
-      <c r="DC37">
-        <v>9.01</v>
-      </c>
     </row>
-    <row r="38" spans="1:107">
+    <row r="38" spans="1:101">
       <c r="A38" t="s">
         <v>250</v>
       </c>
@@ -15293,26 +14631,8 @@
       <c r="CW38">
         <v>2.1800000000000001E-3</v>
       </c>
-      <c r="CX38" s="47">
-        <v>6335</v>
-      </c>
-      <c r="CY38" s="47">
-        <v>5623</v>
-      </c>
-      <c r="CZ38">
-        <v>6.11</v>
-      </c>
-      <c r="DA38">
-        <v>6.03</v>
-      </c>
-      <c r="DB38">
-        <v>6.67</v>
-      </c>
-      <c r="DC38">
-        <v>9.26</v>
-      </c>
     </row>
-    <row r="39" spans="1:107">
+    <row r="39" spans="1:101">
       <c r="A39" t="s">
         <v>250</v>
       </c>
@@ -15616,26 +14936,8 @@
       <c r="CW39">
         <v>2.3500000000000001E-3</v>
       </c>
-      <c r="CX39" s="47">
-        <v>6496</v>
-      </c>
-      <c r="CY39" s="47">
-        <v>5612</v>
-      </c>
-      <c r="CZ39">
-        <v>6.29</v>
-      </c>
-      <c r="DA39">
-        <v>6.17</v>
-      </c>
-      <c r="DB39">
-        <v>6.84</v>
-      </c>
-      <c r="DC39">
-        <v>9.49</v>
-      </c>
     </row>
-    <row r="40" spans="1:107">
+    <row r="40" spans="1:101">
       <c r="A40" t="s">
         <v>250</v>
       </c>
@@ -15939,26 +15241,8 @@
       <c r="CW40">
         <v>2.6199999999999999E-3</v>
       </c>
-      <c r="CX40" s="47">
-        <v>6685</v>
-      </c>
-      <c r="CY40" s="47">
-        <v>5689</v>
-      </c>
-      <c r="CZ40">
-        <v>6.45</v>
-      </c>
-      <c r="DA40">
-        <v>6.33</v>
-      </c>
-      <c r="DB40">
-        <v>6.99</v>
-      </c>
-      <c r="DC40">
-        <v>9.7200000000000006</v>
-      </c>
     </row>
-    <row r="41" spans="1:107">
+    <row r="41" spans="1:101">
       <c r="A41" t="s">
         <v>250</v>
       </c>
@@ -16262,26 +15546,8 @@
       <c r="CW41">
         <v>2.9299999999999999E-3</v>
       </c>
-      <c r="CX41" s="47">
-        <v>6881</v>
-      </c>
-      <c r="CY41">
-        <v>5.74</v>
-      </c>
-      <c r="CZ41">
-        <v>6.64</v>
-      </c>
-      <c r="DA41">
-        <v>6.51</v>
-      </c>
-      <c r="DB41">
-        <v>7.12</v>
-      </c>
-      <c r="DC41">
-        <v>9.9700000000000006</v>
-      </c>
     </row>
-    <row r="42" spans="1:107">
+    <row r="42" spans="1:101">
       <c r="A42" t="s">
         <v>250</v>
       </c>
@@ -16585,26 +15851,8 @@
       <c r="CW42">
         <v>3.14E-3</v>
       </c>
-      <c r="CX42" s="47">
-        <v>7084</v>
-      </c>
-      <c r="CY42">
-        <v>5.96</v>
-      </c>
-      <c r="CZ42">
-        <v>6.81</v>
-      </c>
-      <c r="DA42">
-        <v>6.7</v>
-      </c>
-      <c r="DB42">
-        <v>7.24</v>
-      </c>
-      <c r="DC42">
-        <v>10.23</v>
-      </c>
     </row>
-    <row r="43" spans="1:107">
+    <row r="43" spans="1:101">
       <c r="A43" t="s">
         <v>250</v>
       </c>
@@ -16908,26 +16156,8 @@
       <c r="CW43">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="CX43" s="47">
-        <v>7301</v>
-      </c>
-      <c r="CY43">
-        <v>6.16</v>
-      </c>
-      <c r="CZ43">
-        <v>6.95</v>
-      </c>
-      <c r="DA43">
-        <v>6.9</v>
-      </c>
-      <c r="DB43">
-        <v>7.36</v>
-      </c>
-      <c r="DC43">
-        <v>10.5</v>
-      </c>
     </row>
-    <row r="44" spans="1:107">
+    <row r="44" spans="1:101">
       <c r="A44" t="s">
         <v>250</v>
       </c>
@@ -17231,26 +16461,8 @@
       <c r="CW44">
         <v>3.5200000000000001E-3</v>
       </c>
-      <c r="CX44" s="47">
-        <v>7511</v>
-      </c>
-      <c r="CY44">
-        <v>6.31</v>
-      </c>
-      <c r="CZ44">
-        <v>7.1</v>
-      </c>
-      <c r="DA44">
-        <v>7.12</v>
-      </c>
-      <c r="DB44">
-        <v>7.49</v>
-      </c>
-      <c r="DC44">
-        <v>10.77</v>
-      </c>
     </row>
-    <row r="45" spans="1:107">
+    <row r="45" spans="1:101">
       <c r="A45" t="s">
         <v>250</v>
       </c>
@@ -17554,26 +16766,8 @@
       <c r="CW45">
         <v>3.7100000000000002E-3</v>
       </c>
-      <c r="CX45" s="47">
-        <v>7728</v>
-      </c>
-      <c r="CY45">
-        <v>6.5</v>
-      </c>
-      <c r="CZ45">
-        <v>7.29</v>
-      </c>
-      <c r="DA45">
-        <v>7.36</v>
-      </c>
-      <c r="DB45">
-        <v>7.63</v>
-      </c>
-      <c r="DC45">
-        <v>11.06</v>
-      </c>
     </row>
-    <row r="46" spans="1:107">
+    <row r="46" spans="1:101">
       <c r="A46" t="s">
         <v>250</v>
       </c>
@@ -17877,26 +17071,8 @@
       <c r="CW46">
         <v>4.1700000000000001E-3</v>
       </c>
-      <c r="CX46" s="47">
-        <v>7938</v>
-      </c>
-      <c r="CY46" s="47">
-        <v>6784</v>
-      </c>
-      <c r="CZ46">
-        <v>7.45</v>
-      </c>
-      <c r="DA46">
-        <v>7.61</v>
-      </c>
-      <c r="DB46">
-        <v>7.78</v>
-      </c>
-      <c r="DC46">
-        <v>11.35</v>
-      </c>
     </row>
-    <row r="47" spans="1:107">
+    <row r="47" spans="1:101">
       <c r="A47" t="s">
         <v>250</v>
       </c>
@@ -18200,26 +17376,8 @@
       <c r="CW47">
         <v>4.6299999999999996E-3</v>
       </c>
-      <c r="CX47" s="47">
-        <v>8162</v>
-      </c>
-      <c r="CY47" s="47">
-        <v>6952</v>
-      </c>
-      <c r="CZ47">
-        <v>7.6</v>
-      </c>
-      <c r="DA47">
-        <v>7.88</v>
-      </c>
-      <c r="DB47">
-        <v>7.96</v>
-      </c>
-      <c r="DC47">
-        <v>11.66</v>
-      </c>
     </row>
-    <row r="48" spans="1:107">
+    <row r="48" spans="1:101">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -18523,26 +17681,8 @@
       <c r="CW48">
         <v>5.7400000000000003E-3</v>
       </c>
-      <c r="CX48" s="47">
-        <v>8414</v>
-      </c>
-      <c r="CY48" s="47">
-        <v>7028</v>
-      </c>
-      <c r="CZ48">
-        <v>7.75</v>
-      </c>
-      <c r="DA48">
-        <v>8.16</v>
-      </c>
-      <c r="DB48">
-        <v>8.18</v>
-      </c>
-      <c r="DC48">
-        <v>11.97</v>
-      </c>
     </row>
-    <row r="49" spans="1:107">
+    <row r="49" spans="1:101">
       <c r="A49" t="s">
         <v>250</v>
       </c>
@@ -18846,26 +17986,8 @@
       <c r="CW49">
         <v>6.5599999999999999E-3</v>
       </c>
-      <c r="CX49" s="47">
-        <v>8708</v>
-      </c>
-      <c r="CY49" s="47">
-        <v>7041</v>
-      </c>
-      <c r="CZ49">
-        <v>7.95</v>
-      </c>
-      <c r="DA49">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="DB49">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="DC49">
-        <v>12.29</v>
-      </c>
     </row>
-    <row r="50" spans="1:107">
+    <row r="50" spans="1:101">
       <c r="A50" t="s">
         <v>250</v>
       </c>
@@ -19169,26 +18291,8 @@
       <c r="CW50">
         <v>7.79E-3</v>
       </c>
-      <c r="CX50">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="CY50" s="47">
-        <v>7056</v>
-      </c>
-      <c r="CZ50">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="DA50">
-        <v>8.76</v>
-      </c>
-      <c r="DB50">
-        <v>8.82</v>
-      </c>
-      <c r="DC50">
-        <v>12.63</v>
-      </c>
     </row>
-    <row r="51" spans="1:107">
+    <row r="51" spans="1:101">
       <c r="A51" t="s">
         <v>250</v>
       </c>
@@ -19492,26 +18596,8 @@
       <c r="CW51">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="CX51">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="CY51" s="47">
-        <v>7074</v>
-      </c>
-      <c r="CZ51">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="DA51">
-        <v>9.09</v>
-      </c>
-      <c r="DB51">
-        <v>9.27</v>
-      </c>
-      <c r="DC51">
-        <v>12.97</v>
-      </c>
     </row>
-    <row r="52" spans="1:107">
+    <row r="52" spans="1:101">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -19815,26 +18901,8 @@
       <c r="CW52">
         <v>1.0120000000000001E-2</v>
       </c>
-      <c r="CX52" s="47">
-        <v>9765</v>
-      </c>
-      <c r="CY52" s="47">
-        <v>7095</v>
-      </c>
-      <c r="CZ52">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="DA52">
-        <v>9.43</v>
-      </c>
-      <c r="DB52">
-        <v>9.82</v>
-      </c>
-      <c r="DC52">
-        <v>13.32</v>
-      </c>
     </row>
-    <row r="53" spans="1:107">
+    <row r="53" spans="1:101">
       <c r="A53" t="s">
         <v>250</v>
       </c>
@@ -20138,26 +19206,8 @@
       <c r="CW53">
         <v>1.1010000000000001E-2</v>
       </c>
-      <c r="CX53" s="47">
-        <v>10113</v>
-      </c>
-      <c r="CY53">
-        <v>7.12</v>
-      </c>
-      <c r="CZ53">
-        <v>9.15</v>
-      </c>
-      <c r="DA53">
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="DB53">
-        <v>10.41</v>
-      </c>
-      <c r="DC53">
-        <v>13.69</v>
-      </c>
     </row>
-    <row r="54" spans="1:107">
+    <row r="54" spans="1:101">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -20461,26 +19511,8 @@
       <c r="CW54">
         <v>1.213E-2</v>
       </c>
-      <c r="CX54" s="47">
-        <v>10549</v>
-      </c>
-      <c r="CY54" s="47">
-        <v>7147</v>
-      </c>
-      <c r="CZ54">
-        <v>9.6</v>
-      </c>
-      <c r="DA54">
-        <v>10.16</v>
-      </c>
-      <c r="DB54">
-        <v>11.02</v>
-      </c>
-      <c r="DC54">
-        <v>14.06</v>
-      </c>
     </row>
-    <row r="55" spans="1:107">
+    <row r="55" spans="1:101">
       <c r="A55" t="s">
         <v>250</v>
       </c>
@@ -20784,26 +19816,8 @@
       <c r="CW55">
         <v>1.3310000000000001E-2</v>
       </c>
-      <c r="CX55" s="47">
-        <v>10976</v>
-      </c>
-      <c r="CY55" s="47">
-        <v>7178</v>
-      </c>
-      <c r="CZ55">
-        <v>10.1</v>
-      </c>
-      <c r="DA55">
-        <v>10.55</v>
-      </c>
-      <c r="DB55">
-        <v>11.65</v>
-      </c>
-      <c r="DC55">
-        <v>14.45</v>
-      </c>
     </row>
-    <row r="56" spans="1:107">
+    <row r="56" spans="1:101">
       <c r="A56" t="s">
         <v>250</v>
       </c>
@@ -21107,26 +20121,8 @@
       <c r="CW56">
         <v>1.4540000000000001E-2</v>
       </c>
-      <c r="CX56" s="47">
-        <v>11473</v>
-      </c>
-      <c r="CY56" s="47">
-        <v>7212</v>
-      </c>
-      <c r="CZ56">
-        <v>10.77</v>
-      </c>
-      <c r="DA56">
-        <v>10.95</v>
-      </c>
-      <c r="DB56">
-        <v>12.28</v>
-      </c>
-      <c r="DC56">
-        <v>14.84</v>
-      </c>
     </row>
-    <row r="57" spans="1:107">
+    <row r="57" spans="1:101">
       <c r="A57" t="s">
         <v>250</v>
       </c>
@@ -21430,26 +20426,8 @@
       <c r="CW57">
         <v>1.5440000000000001E-2</v>
       </c>
-      <c r="CX57" s="47">
-        <v>12012</v>
-      </c>
-      <c r="CY57" s="47">
-        <v>7596</v>
-      </c>
-      <c r="CZ57">
-        <v>11.45</v>
-      </c>
-      <c r="DA57">
-        <v>11.37</v>
-      </c>
-      <c r="DB57">
-        <v>12.92</v>
-      </c>
-      <c r="DC57">
-        <v>15.24</v>
-      </c>
     </row>
-    <row r="58" spans="1:107">
+    <row r="58" spans="1:101">
       <c r="A58" t="s">
         <v>250</v>
       </c>
@@ -21753,26 +20731,8 @@
       <c r="CW58">
         <v>1.678E-2</v>
       </c>
-      <c r="CX58" s="47">
-        <v>12586</v>
-      </c>
-      <c r="CY58" s="47">
-        <v>8121</v>
-      </c>
-      <c r="CZ58">
-        <v>12.2</v>
-      </c>
-      <c r="DA58">
-        <v>11.8</v>
-      </c>
-      <c r="DB58">
-        <v>13.56</v>
-      </c>
-      <c r="DC58">
-        <v>15.66</v>
-      </c>
     </row>
-    <row r="59" spans="1:107">
+    <row r="59" spans="1:101">
       <c r="A59" t="s">
         <v>250</v>
       </c>
@@ -22076,26 +21036,8 @@
       <c r="CW59">
         <v>1.9230000000000001E-2</v>
       </c>
-      <c r="CX59" s="47">
-        <v>13209</v>
-      </c>
-      <c r="CY59" s="47">
-        <v>8768</v>
-      </c>
-      <c r="CZ59">
-        <v>12.9</v>
-      </c>
-      <c r="DA59">
-        <v>12.25</v>
-      </c>
-      <c r="DB59">
-        <v>11.2</v>
-      </c>
-      <c r="DC59">
-        <v>16.079999999999998</v>
-      </c>
     </row>
-    <row r="60" spans="1:107">
+    <row r="60" spans="1:101">
       <c r="A60" t="s">
         <v>250</v>
       </c>
@@ -22399,26 +21341,8 @@
       <c r="CW60">
         <v>2.198E-2</v>
       </c>
-      <c r="CX60" s="47">
-        <v>13853</v>
-      </c>
-      <c r="CY60">
-        <v>9.5</v>
-      </c>
-      <c r="CZ60">
-        <v>13.67</v>
-      </c>
-      <c r="DA60">
-        <v>12.72</v>
-      </c>
-      <c r="DB60">
-        <v>11.84</v>
-      </c>
-      <c r="DC60">
-        <v>16.52</v>
-      </c>
     </row>
-    <row r="61" spans="1:107">
+    <row r="61" spans="1:101">
       <c r="A61" t="s">
         <v>250</v>
       </c>
@@ -22722,26 +21646,8 @@
       <c r="CW61">
         <v>2.6980000000000001E-2</v>
       </c>
-      <c r="CX61" s="47">
-        <v>14518</v>
-      </c>
-      <c r="CY61" s="47">
-        <v>10748</v>
-      </c>
-      <c r="CZ61">
-        <v>14.46</v>
-      </c>
-      <c r="DA61">
-        <v>13.9</v>
-      </c>
-      <c r="DB61">
-        <v>15.18</v>
-      </c>
-      <c r="DC61">
-        <v>16.97</v>
-      </c>
     </row>
-    <row r="62" spans="1:107">
+    <row r="62" spans="1:101">
       <c r="A62" t="s">
         <v>250</v>
       </c>
@@ -23045,26 +21951,8 @@
       <c r="CW62">
         <v>3.3529999999999997E-2</v>
       </c>
-      <c r="CX62" s="47">
-        <v>15253</v>
-      </c>
-      <c r="CY62" s="47">
-        <v>11724</v>
-      </c>
-      <c r="CZ62">
-        <v>15.31</v>
-      </c>
-      <c r="DA62">
-        <v>13.69</v>
-      </c>
-      <c r="DB62">
-        <v>16.12</v>
-      </c>
-      <c r="DC62">
-        <v>17.420000000000002</v>
-      </c>
     </row>
-    <row r="63" spans="1:107">
+    <row r="63" spans="1:101">
       <c r="A63" t="s">
         <v>250</v>
       </c>
@@ -23368,26 +22256,8 @@
       <c r="CW63">
         <v>4.2169999999999999E-2</v>
       </c>
-      <c r="CX63" s="47">
-        <v>16044</v>
-      </c>
-      <c r="CY63" s="47">
-        <v>12476</v>
-      </c>
-      <c r="CZ63">
-        <v>16.2</v>
-      </c>
-      <c r="DA63">
-        <v>14.2</v>
-      </c>
-      <c r="DB63">
-        <v>16.760000000000002</v>
-      </c>
-      <c r="DC63">
-        <v>17.89</v>
-      </c>
     </row>
-    <row r="64" spans="1:107">
+    <row r="64" spans="1:101">
       <c r="A64" t="s">
         <v>250</v>
       </c>
@@ -23691,26 +22561,8 @@
       <c r="CW64">
         <v>5.4339999999999999E-2</v>
       </c>
-      <c r="CX64" s="47">
-        <v>16863</v>
-      </c>
-      <c r="CY64" s="47">
-        <v>13052</v>
-      </c>
-      <c r="CZ64">
-        <v>17</v>
-      </c>
-      <c r="DA64">
-        <v>11.72</v>
-      </c>
-      <c r="DB64">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="DC64">
-        <v>18.37</v>
-      </c>
     </row>
-    <row r="65" spans="1:107">
+    <row r="65" spans="1:101">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -24014,26 +22866,8 @@
       <c r="CW65">
         <v>5.9319999999999998E-2</v>
       </c>
-      <c r="CX65" s="47">
-        <v>17703</v>
-      </c>
-      <c r="CY65">
-        <v>13.5</v>
-      </c>
-      <c r="CZ65">
-        <v>17.7</v>
-      </c>
-      <c r="DA65">
-        <v>15.26</v>
-      </c>
-      <c r="DB65">
-        <v>18.04</v>
-      </c>
-      <c r="DC65">
-        <v>18.86</v>
-      </c>
     </row>
-    <row r="66" spans="1:107">
+    <row r="66" spans="1:101">
       <c r="A66" t="s">
         <v>250</v>
       </c>
@@ -24337,26 +23171,8 @@
       <c r="CW66">
         <v>6.8339999999999998E-2</v>
       </c>
-      <c r="CX66">
-        <v>18.55</v>
-      </c>
-      <c r="CY66" s="47">
-        <v>14172</v>
-      </c>
-      <c r="CZ66">
-        <v>18.18</v>
-      </c>
-      <c r="DA66">
-        <v>15.81</v>
-      </c>
-      <c r="DB66">
-        <v>18.68</v>
-      </c>
-      <c r="DC66">
-        <v>19.36</v>
-      </c>
     </row>
-    <row r="67" spans="1:107">
+    <row r="67" spans="1:101">
       <c r="A67" t="s">
         <v>250</v>
       </c>
@@ -24660,26 +23476,8 @@
       <c r="CW67">
         <v>7.6300000000000007E-2</v>
       </c>
-      <c r="CX67" s="47">
-        <v>19383</v>
-      </c>
-      <c r="CY67" s="47">
-        <v>11736</v>
-      </c>
-      <c r="CZ67">
-        <v>19.260000000000002</v>
-      </c>
-      <c r="DA67">
-        <v>16.38</v>
-      </c>
-      <c r="DB67">
-        <v>19.32</v>
-      </c>
-      <c r="DC67">
-        <v>19.87</v>
-      </c>
     </row>
-    <row r="68" spans="1:107">
+    <row r="68" spans="1:101">
       <c r="A68" t="s">
         <v>250</v>
       </c>
@@ -24983,26 +23781,8 @@
       <c r="CW68">
         <v>8.2930000000000004E-2</v>
       </c>
-      <c r="CX68" s="47">
-        <v>20258</v>
-      </c>
-      <c r="CY68" s="47">
-        <v>15161</v>
-      </c>
-      <c r="CZ68">
-        <v>19.95</v>
-      </c>
-      <c r="DA68">
-        <v>16.97</v>
-      </c>
-      <c r="DB68">
-        <v>19.96</v>
-      </c>
-      <c r="DC68">
-        <v>20.39</v>
-      </c>
     </row>
-    <row r="69" spans="1:107">
+    <row r="69" spans="1:101">
       <c r="A69" t="s">
         <v>250</v>
       </c>
@@ -25306,26 +24086,8 @@
       <c r="CW69">
         <v>9.5089999999999994E-2</v>
       </c>
-      <c r="CX69">
-        <v>21.41</v>
-      </c>
-      <c r="CY69" s="47">
-        <v>15128</v>
-      </c>
-      <c r="CZ69">
-        <v>20.74</v>
-      </c>
-      <c r="DA69">
-        <v>17.57</v>
-      </c>
-      <c r="DB69">
-        <v>20.61</v>
-      </c>
-      <c r="DC69">
-        <v>20.93</v>
-      </c>
     </row>
-    <row r="70" spans="1:107">
+    <row r="70" spans="1:101">
       <c r="A70" t="s">
         <v>250</v>
       </c>
@@ -25629,26 +24391,8 @@
       <c r="CW70">
         <v>0.11103</v>
       </c>
-      <c r="CX70" s="47">
-        <v>21991</v>
-      </c>
-      <c r="CY70">
-        <v>15.5</v>
-      </c>
-      <c r="CZ70">
-        <v>21.8</v>
-      </c>
-      <c r="DA70">
-        <v>18.18</v>
-      </c>
-      <c r="DB70">
-        <v>21.26</v>
-      </c>
-      <c r="DC70">
-        <v>21.17</v>
-      </c>
     </row>
-    <row r="71" spans="1:107">
+    <row r="71" spans="1:101">
       <c r="A71" t="s">
         <v>250</v>
       </c>
@@ -25952,26 +24696,8 @@
       <c r="CW71">
         <v>0.12901000000000001</v>
       </c>
-      <c r="CX71" s="47">
-        <v>22729</v>
-      </c>
-      <c r="CY71" s="47">
-        <v>16188</v>
-      </c>
-      <c r="CZ71">
-        <v>23.5</v>
-      </c>
-      <c r="DA71">
-        <v>18.809999999999999</v>
-      </c>
-      <c r="DB71">
-        <v>21.92</v>
-      </c>
-      <c r="DC71">
-        <v>22.03</v>
-      </c>
     </row>
-    <row r="72" spans="1:107">
+    <row r="72" spans="1:101">
       <c r="A72" t="s">
         <v>250</v>
       </c>
@@ -26275,26 +25001,8 @@
       <c r="CW72">
         <v>0.15509000000000001</v>
       </c>
-      <c r="CX72" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY72" s="47">
-        <v>17081</v>
-      </c>
-      <c r="CZ72">
-        <v>25.9</v>
-      </c>
-      <c r="DA72">
-        <v>19.46</v>
-      </c>
-      <c r="DB72">
-        <v>22.5</v>
-      </c>
-      <c r="DC72">
-        <v>22.6</v>
-      </c>
     </row>
-    <row r="73" spans="1:107">
+    <row r="73" spans="1:101">
       <c r="A73" t="s">
         <v>250</v>
       </c>
@@ -26598,26 +25306,8 @@
       <c r="CW73">
         <v>0.18929000000000001</v>
       </c>
-      <c r="CX73" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY73" s="47">
-        <v>18236</v>
-      </c>
-      <c r="CZ73">
-        <v>1</v>
-      </c>
-      <c r="DA73">
-        <v>20.12</v>
-      </c>
-      <c r="DB73">
-        <v>23.27</v>
-      </c>
-      <c r="DC73">
-        <v>23.18</v>
-      </c>
     </row>
-    <row r="74" spans="1:107">
+    <row r="74" spans="1:101">
       <c r="A74" t="s">
         <v>250</v>
       </c>
@@ -26921,26 +25611,8 @@
       <c r="CW74">
         <v>0.22126999999999999</v>
       </c>
-      <c r="CX74" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY74" s="47">
-        <v>19692</v>
-      </c>
-      <c r="CZ74">
-        <v>1</v>
-      </c>
-      <c r="DA74">
-        <v>20.8</v>
-      </c>
-      <c r="DB74">
-        <v>23.96</v>
-      </c>
-      <c r="DC74">
-        <v>23.78</v>
-      </c>
     </row>
-    <row r="75" spans="1:107">
+    <row r="75" spans="1:101">
       <c r="A75" t="s">
         <v>250</v>
       </c>
@@ -27244,26 +25916,8 @@
       <c r="CW75">
         <v>0.25258000000000003</v>
       </c>
-      <c r="CX75" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY75">
-        <v>21.5</v>
-      </c>
-      <c r="CZ75">
-        <v>1</v>
-      </c>
-      <c r="DA75">
-        <v>21.49</v>
-      </c>
-      <c r="DB75">
-        <v>21.67</v>
-      </c>
-      <c r="DC75">
-        <v>21.37</v>
-      </c>
     </row>
-    <row r="76" spans="1:107">
+    <row r="76" spans="1:101">
       <c r="A76" t="s">
         <v>250</v>
       </c>
@@ -27567,26 +26221,8 @@
       <c r="CW76">
         <v>0.28855999999999998</v>
       </c>
-      <c r="CX76" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY76">
-        <v>25</v>
-      </c>
-      <c r="CZ76">
-        <v>1</v>
-      </c>
-      <c r="DA76">
-        <v>22.19</v>
-      </c>
-      <c r="DB76">
-        <v>25.41</v>
-      </c>
-      <c r="DC76">
-        <v>21.98</v>
-      </c>
     </row>
-    <row r="77" spans="1:107">
+    <row r="77" spans="1:101">
       <c r="A77" t="s">
         <v>250</v>
       </c>
@@ -27890,26 +26526,8 @@
       <c r="CW77">
         <v>0.33090999999999998</v>
       </c>
-      <c r="CX77" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY77" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ77">
-        <v>1</v>
-      </c>
-      <c r="DA77">
-        <v>22.92</v>
-      </c>
-      <c r="DB77">
-        <v>26.19</v>
-      </c>
-      <c r="DC77">
-        <v>25.61</v>
-      </c>
     </row>
-    <row r="78" spans="1:107">
+    <row r="78" spans="1:101">
       <c r="A78" t="s">
         <v>250</v>
       </c>
@@ -28213,26 +26831,8 @@
       <c r="CW78">
         <v>0.38146999999999998</v>
       </c>
-      <c r="CX78" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY78" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ78">
-        <v>1</v>
-      </c>
-      <c r="DA78">
-        <v>23.65</v>
-      </c>
-      <c r="DB78">
-        <v>27.02</v>
-      </c>
-      <c r="DC78">
-        <v>26.25</v>
-      </c>
     </row>
-    <row r="79" spans="1:107">
+    <row r="79" spans="1:101">
       <c r="A79" t="s">
         <v>250</v>
       </c>
@@ -28536,26 +27136,8 @@
       <c r="CW79">
         <v>0.44288</v>
       </c>
-      <c r="CX79" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY79" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ79">
-        <v>1</v>
-      </c>
-      <c r="DA79">
-        <v>21.4</v>
-      </c>
-      <c r="DB79">
-        <v>27.92</v>
-      </c>
-      <c r="DC79">
-        <v>26.89</v>
-      </c>
     </row>
-    <row r="80" spans="1:107">
+    <row r="80" spans="1:101">
       <c r="A80" t="s">
         <v>250</v>
       </c>
@@ -28859,26 +27441,8 @@
       <c r="CW80">
         <v>0.51909000000000005</v>
       </c>
-      <c r="CX80" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY80" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ80">
-        <v>1</v>
-      </c>
-      <c r="DA80">
-        <v>25.17</v>
-      </c>
-      <c r="DB80">
-        <v>28.92</v>
-      </c>
-      <c r="DC80">
-        <v>27.56</v>
-      </c>
     </row>
-    <row r="81" spans="1:107">
+    <row r="81" spans="1:101">
       <c r="A81" t="s">
         <v>250</v>
       </c>
@@ -29182,26 +27746,8 @@
       <c r="CW81">
         <v>0.61319999999999997</v>
       </c>
-      <c r="CX81" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY81" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ81">
-        <v>1</v>
-      </c>
-      <c r="DA81">
-        <v>25.95</v>
-      </c>
-      <c r="DB81">
-        <v>30.01</v>
-      </c>
-      <c r="DC81">
-        <v>28.23</v>
-      </c>
     </row>
-    <row r="82" spans="1:107">
+    <row r="82" spans="1:101">
       <c r="A82" t="s">
         <v>250</v>
       </c>
@@ -29505,26 +28051,8 @@
       <c r="CW82">
         <v>0.74399000000000004</v>
       </c>
-      <c r="CX82" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY82" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ82">
-        <v>1</v>
-      </c>
-      <c r="DA82">
-        <v>26.75</v>
-      </c>
-      <c r="DB82">
-        <v>31.31</v>
-      </c>
-      <c r="DC82">
-        <v>1</v>
-      </c>
     </row>
-    <row r="83" spans="1:107">
+    <row r="83" spans="1:101">
       <c r="A83" t="s">
         <v>250</v>
       </c>
@@ -29828,26 +28356,8 @@
       <c r="CW83">
         <v>0.92</v>
       </c>
-      <c r="CX83" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY83" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ83">
-        <v>1</v>
-      </c>
-      <c r="DA83">
-        <v>1</v>
-      </c>
-      <c r="DB83">
-        <v>1</v>
-      </c>
-      <c r="DC83">
-        <v>1</v>
-      </c>
     </row>
-    <row r="84" spans="1:107">
+    <row r="84" spans="1:101">
       <c r="A84" t="s">
         <v>250</v>
       </c>
@@ -30151,26 +28661,8 @@
       <c r="CW84">
         <v>1</v>
       </c>
-      <c r="CX84" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY84" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ84">
-        <v>1</v>
-      </c>
-      <c r="DA84">
-        <v>1</v>
-      </c>
-      <c r="DB84">
-        <v>1</v>
-      </c>
-      <c r="DC84">
-        <v>1</v>
-      </c>
     </row>
-    <row r="85" spans="1:107">
+    <row r="85" spans="1:101">
       <c r="A85" t="s">
         <v>250</v>
       </c>
@@ -30474,26 +28966,8 @@
       <c r="CW85">
         <v>1</v>
       </c>
-      <c r="CX85" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY85" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ85">
-        <v>1</v>
-      </c>
-      <c r="DA85">
-        <v>1</v>
-      </c>
-      <c r="DB85">
-        <v>1</v>
-      </c>
-      <c r="DC85">
-        <v>1</v>
-      </c>
     </row>
-    <row r="86" spans="1:107">
+    <row r="86" spans="1:101">
       <c r="A86" t="s">
         <v>250</v>
       </c>
@@ -30797,26 +29271,8 @@
       <c r="CW86">
         <v>1</v>
       </c>
-      <c r="CX86" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY86" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ86">
-        <v>1</v>
-      </c>
-      <c r="DA86">
-        <v>1</v>
-      </c>
-      <c r="DB86">
-        <v>1</v>
-      </c>
-      <c r="DC86">
-        <v>1</v>
-      </c>
     </row>
-    <row r="87" spans="1:107">
+    <row r="87" spans="1:101">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -31120,26 +29576,8 @@
       <c r="CW87">
         <v>1</v>
       </c>
-      <c r="CX87" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY87" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ87">
-        <v>1</v>
-      </c>
-      <c r="DA87">
-        <v>1</v>
-      </c>
-      <c r="DB87">
-        <v>1</v>
-      </c>
-      <c r="DC87">
-        <v>1</v>
-      </c>
     </row>
-    <row r="88" spans="1:107">
+    <row r="88" spans="1:101">
       <c r="A88" t="s">
         <v>250</v>
       </c>
@@ -31443,26 +29881,8 @@
       <c r="CW88">
         <v>1</v>
       </c>
-      <c r="CX88" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY88" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ88">
-        <v>1</v>
-      </c>
-      <c r="DA88">
-        <v>1</v>
-      </c>
-      <c r="DB88">
-        <v>1</v>
-      </c>
-      <c r="DC88">
-        <v>1</v>
-      </c>
     </row>
-    <row r="89" spans="1:107">
+    <row r="89" spans="1:101">
       <c r="A89" t="s">
         <v>250</v>
       </c>
@@ -31766,26 +30186,8 @@
       <c r="CW89">
         <v>1</v>
       </c>
-      <c r="CX89" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY89" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ89">
-        <v>1</v>
-      </c>
-      <c r="DA89">
-        <v>1</v>
-      </c>
-      <c r="DB89">
-        <v>1</v>
-      </c>
-      <c r="DC89">
-        <v>1</v>
-      </c>
     </row>
-    <row r="90" spans="1:107">
+    <row r="90" spans="1:101">
       <c r="A90" t="s">
         <v>250</v>
       </c>
@@ -32089,26 +30491,8 @@
       <c r="CW90">
         <v>1</v>
       </c>
-      <c r="CX90" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY90" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ90">
-        <v>1</v>
-      </c>
-      <c r="DA90">
-        <v>1</v>
-      </c>
-      <c r="DB90">
-        <v>1</v>
-      </c>
-      <c r="DC90">
-        <v>1</v>
-      </c>
     </row>
-    <row r="91" spans="1:107">
+    <row r="91" spans="1:101">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -32412,26 +30796,8 @@
       <c r="CW91">
         <v>1</v>
       </c>
-      <c r="CX91" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY91" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ91">
-        <v>1</v>
-      </c>
-      <c r="DA91">
-        <v>1</v>
-      </c>
-      <c r="DB91">
-        <v>1</v>
-      </c>
-      <c r="DC91">
-        <v>1</v>
-      </c>
     </row>
-    <row r="92" spans="1:107">
+    <row r="92" spans="1:101">
       <c r="A92" t="s">
         <v>250</v>
       </c>
@@ -32735,26 +31101,8 @@
       <c r="CW92">
         <v>1</v>
       </c>
-      <c r="CX92" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY92" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ92">
-        <v>1</v>
-      </c>
-      <c r="DA92">
-        <v>1</v>
-      </c>
-      <c r="DB92">
-        <v>1</v>
-      </c>
-      <c r="DC92">
-        <v>1</v>
-      </c>
     </row>
-    <row r="93" spans="1:107">
+    <row r="93" spans="1:101">
       <c r="A93" t="s">
         <v>250</v>
       </c>
@@ -33058,26 +31406,8 @@
       <c r="CW93">
         <v>1</v>
       </c>
-      <c r="CX93" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY93" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ93">
-        <v>1</v>
-      </c>
-      <c r="DA93">
-        <v>1</v>
-      </c>
-      <c r="DB93">
-        <v>1</v>
-      </c>
-      <c r="DC93">
-        <v>1</v>
-      </c>
     </row>
-    <row r="94" spans="1:107">
+    <row r="94" spans="1:101">
       <c r="A94" t="s">
         <v>250</v>
       </c>
@@ -33381,26 +31711,8 @@
       <c r="CW94">
         <v>1</v>
       </c>
-      <c r="CX94" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY94" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ94">
-        <v>1</v>
-      </c>
-      <c r="DA94">
-        <v>1</v>
-      </c>
-      <c r="DB94">
-        <v>1</v>
-      </c>
-      <c r="DC94">
-        <v>1</v>
-      </c>
     </row>
-    <row r="95" spans="1:107">
+    <row r="95" spans="1:101">
       <c r="A95" t="s">
         <v>250</v>
       </c>
@@ -33704,26 +32016,8 @@
       <c r="CW95">
         <v>1</v>
       </c>
-      <c r="CX95" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY95" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ95">
-        <v>1</v>
-      </c>
-      <c r="DA95">
-        <v>1</v>
-      </c>
-      <c r="DB95">
-        <v>1</v>
-      </c>
-      <c r="DC95">
-        <v>1</v>
-      </c>
     </row>
-    <row r="96" spans="1:107">
+    <row r="96" spans="1:101">
       <c r="A96" t="s">
         <v>250</v>
       </c>
@@ -34027,26 +32321,8 @@
       <c r="CW96">
         <v>1</v>
       </c>
-      <c r="CX96" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY96" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ96">
-        <v>1</v>
-      </c>
-      <c r="DA96">
-        <v>1</v>
-      </c>
-      <c r="DB96">
-        <v>1</v>
-      </c>
-      <c r="DC96">
-        <v>1</v>
-      </c>
     </row>
-    <row r="97" spans="1:107">
+    <row r="97" spans="1:101">
       <c r="A97" t="s">
         <v>250</v>
       </c>
@@ -34350,26 +32626,8 @@
       <c r="CW97">
         <v>1</v>
       </c>
-      <c r="CX97" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY97" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ97">
-        <v>1</v>
-      </c>
-      <c r="DA97">
-        <v>1</v>
-      </c>
-      <c r="DB97">
-        <v>1</v>
-      </c>
-      <c r="DC97">
-        <v>1</v>
-      </c>
     </row>
-    <row r="98" spans="1:107">
+    <row r="98" spans="1:101">
       <c r="A98" t="s">
         <v>250</v>
       </c>
@@ -34673,26 +32931,8 @@
       <c r="CW98">
         <v>1</v>
       </c>
-      <c r="CX98" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY98" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ98">
-        <v>1</v>
-      </c>
-      <c r="DA98">
-        <v>1</v>
-      </c>
-      <c r="DB98">
-        <v>1</v>
-      </c>
-      <c r="DC98">
-        <v>1</v>
-      </c>
     </row>
-    <row r="99" spans="1:107">
+    <row r="99" spans="1:101">
       <c r="A99" t="s">
         <v>250</v>
       </c>
@@ -34996,26 +33236,8 @@
       <c r="CW99">
         <v>1</v>
       </c>
-      <c r="CX99" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY99" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ99">
-        <v>1</v>
-      </c>
-      <c r="DA99">
-        <v>1</v>
-      </c>
-      <c r="DB99">
-        <v>1</v>
-      </c>
-      <c r="DC99">
-        <v>1</v>
-      </c>
     </row>
-    <row r="100" spans="1:107">
+    <row r="100" spans="1:101">
       <c r="A100" t="s">
         <v>250</v>
       </c>
@@ -35319,26 +33541,8 @@
       <c r="CW100">
         <v>1</v>
       </c>
-      <c r="CX100" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY100" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ100">
-        <v>1</v>
-      </c>
-      <c r="DA100">
-        <v>1</v>
-      </c>
-      <c r="DB100">
-        <v>1</v>
-      </c>
-      <c r="DC100">
-        <v>1</v>
-      </c>
     </row>
-    <row r="101" spans="1:107">
+    <row r="101" spans="1:101">
       <c r="A101" t="s">
         <v>250</v>
       </c>
@@ -35642,26 +33846,8 @@
       <c r="CW101">
         <v>1</v>
       </c>
-      <c r="CX101" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY101" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ101">
-        <v>1</v>
-      </c>
-      <c r="DA101">
-        <v>1</v>
-      </c>
-      <c r="DB101">
-        <v>1</v>
-      </c>
-      <c r="DC101">
-        <v>1</v>
-      </c>
     </row>
-    <row r="102" spans="1:107">
+    <row r="102" spans="1:101">
       <c r="A102" t="s">
         <v>250</v>
       </c>
@@ -35965,26 +34151,8 @@
       <c r="CW102">
         <v>1</v>
       </c>
-      <c r="CX102" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY102" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ102">
-        <v>1</v>
-      </c>
-      <c r="DA102">
-        <v>1</v>
-      </c>
-      <c r="DB102">
-        <v>1</v>
-      </c>
-      <c r="DC102">
-        <v>1</v>
-      </c>
     </row>
-    <row r="103" spans="1:107">
+    <row r="103" spans="1:101">
       <c r="A103" t="s">
         <v>250</v>
       </c>
@@ -36288,26 +34456,8 @@
       <c r="CW103">
         <v>1</v>
       </c>
-      <c r="CX103" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY103" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ103">
-        <v>1</v>
-      </c>
-      <c r="DA103">
-        <v>1</v>
-      </c>
-      <c r="DB103">
-        <v>1</v>
-      </c>
-      <c r="DC103">
-        <v>1</v>
-      </c>
     </row>
-    <row r="104" spans="1:107">
+    <row r="104" spans="1:101">
       <c r="A104" t="s">
         <v>250</v>
       </c>
@@ -36611,26 +34761,8 @@
       <c r="CW104">
         <v>1</v>
       </c>
-      <c r="CX104" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY104" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ104">
-        <v>1</v>
-      </c>
-      <c r="DA104">
-        <v>1</v>
-      </c>
-      <c r="DB104">
-        <v>1</v>
-      </c>
-      <c r="DC104">
-        <v>1</v>
-      </c>
     </row>
-    <row r="105" spans="1:107">
+    <row r="105" spans="1:101">
       <c r="A105" t="s">
         <v>250</v>
       </c>
@@ -36934,26 +35066,8 @@
       <c r="CW105">
         <v>1</v>
       </c>
-      <c r="CX105" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY105" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ105">
-        <v>1</v>
-      </c>
-      <c r="DA105">
-        <v>1</v>
-      </c>
-      <c r="DB105">
-        <v>1</v>
-      </c>
-      <c r="DC105">
-        <v>1</v>
-      </c>
     </row>
-    <row r="106" spans="1:107">
+    <row r="106" spans="1:101">
       <c r="A106" t="s">
         <v>250</v>
       </c>
@@ -37257,26 +35371,8 @@
       <c r="CW106">
         <v>1</v>
       </c>
-      <c r="CX106" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY106" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ106">
-        <v>1</v>
-      </c>
-      <c r="DA106">
-        <v>1</v>
-      </c>
-      <c r="DB106">
-        <v>1</v>
-      </c>
-      <c r="DC106">
-        <v>1</v>
-      </c>
     </row>
-    <row r="107" spans="1:107">
+    <row r="107" spans="1:101">
       <c r="A107" t="s">
         <v>250</v>
       </c>
@@ -37580,26 +35676,8 @@
       <c r="CW107">
         <v>1</v>
       </c>
-      <c r="CX107" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY107" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ107">
-        <v>1</v>
-      </c>
-      <c r="DA107">
-        <v>1</v>
-      </c>
-      <c r="DB107">
-        <v>1</v>
-      </c>
-      <c r="DC107">
-        <v>1</v>
-      </c>
     </row>
-    <row r="108" spans="1:107">
+    <row r="108" spans="1:101">
       <c r="A108" t="s">
         <v>250</v>
       </c>
@@ -37903,26 +35981,8 @@
       <c r="CW108">
         <v>1</v>
       </c>
-      <c r="CX108" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY108" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ108">
-        <v>1</v>
-      </c>
-      <c r="DA108">
-        <v>1</v>
-      </c>
-      <c r="DB108">
-        <v>1</v>
-      </c>
-      <c r="DC108">
-        <v>1</v>
-      </c>
     </row>
-    <row r="109" spans="1:107">
+    <row r="109" spans="1:101">
       <c r="A109" t="s">
         <v>250</v>
       </c>
@@ -38226,26 +36286,8 @@
       <c r="CW109">
         <v>1</v>
       </c>
-      <c r="CX109" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY109" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ109">
-        <v>1</v>
-      </c>
-      <c r="DA109">
-        <v>1</v>
-      </c>
-      <c r="DB109">
-        <v>1</v>
-      </c>
-      <c r="DC109">
-        <v>1</v>
-      </c>
     </row>
-    <row r="110" spans="1:107">
+    <row r="110" spans="1:101">
       <c r="A110" t="s">
         <v>250</v>
       </c>
@@ -38549,26 +36591,8 @@
       <c r="CW110">
         <v>1</v>
       </c>
-      <c r="CX110" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY110" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ110">
-        <v>1</v>
-      </c>
-      <c r="DA110">
-        <v>1</v>
-      </c>
-      <c r="DB110">
-        <v>1</v>
-      </c>
-      <c r="DC110">
-        <v>1</v>
-      </c>
     </row>
-    <row r="111" spans="1:107">
+    <row r="111" spans="1:101">
       <c r="A111" t="s">
         <v>250</v>
       </c>
@@ -38872,26 +36896,8 @@
       <c r="CW111">
         <v>1</v>
       </c>
-      <c r="CX111" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY111" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ111">
-        <v>1</v>
-      </c>
-      <c r="DA111">
-        <v>1</v>
-      </c>
-      <c r="DB111">
-        <v>1</v>
-      </c>
-      <c r="DC111">
-        <v>1</v>
-      </c>
     </row>
-    <row r="112" spans="1:107">
+    <row r="112" spans="1:101">
       <c r="A112" t="s">
         <v>250</v>
       </c>
@@ -39195,26 +37201,8 @@
       <c r="CW112">
         <v>1</v>
       </c>
-      <c r="CX112" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY112" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ112">
-        <v>1</v>
-      </c>
-      <c r="DA112">
-        <v>1</v>
-      </c>
-      <c r="DB112">
-        <v>1</v>
-      </c>
-      <c r="DC112">
-        <v>1</v>
-      </c>
     </row>
-    <row r="113" spans="1:107">
+    <row r="113" spans="1:101">
       <c r="A113" t="s">
         <v>250</v>
       </c>
@@ -39518,26 +37506,8 @@
       <c r="CW113">
         <v>1</v>
       </c>
-      <c r="CX113" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY113" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ113">
-        <v>1</v>
-      </c>
-      <c r="DA113">
-        <v>1</v>
-      </c>
-      <c r="DB113">
-        <v>1</v>
-      </c>
-      <c r="DC113">
-        <v>1</v>
-      </c>
     </row>
-    <row r="114" spans="1:107">
+    <row r="114" spans="1:101">
       <c r="A114" t="s">
         <v>250</v>
       </c>
@@ -39841,26 +37811,8 @@
       <c r="CW114">
         <v>1</v>
       </c>
-      <c r="CX114" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY114" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ114">
-        <v>1</v>
-      </c>
-      <c r="DA114">
-        <v>1</v>
-      </c>
-      <c r="DB114">
-        <v>1</v>
-      </c>
-      <c r="DC114">
-        <v>1</v>
-      </c>
     </row>
-    <row r="115" spans="1:107">
+    <row r="115" spans="1:101">
       <c r="A115" t="s">
         <v>250</v>
       </c>
@@ -40164,26 +38116,8 @@
       <c r="CW115">
         <v>1</v>
       </c>
-      <c r="CX115" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY115" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ115">
-        <v>1</v>
-      </c>
-      <c r="DA115">
-        <v>1</v>
-      </c>
-      <c r="DB115">
-        <v>1</v>
-      </c>
-      <c r="DC115">
-        <v>1</v>
-      </c>
     </row>
-    <row r="116" spans="1:107">
+    <row r="116" spans="1:101">
       <c r="A116" t="s">
         <v>250</v>
       </c>
@@ -40487,26 +38421,8 @@
       <c r="CW116">
         <v>1</v>
       </c>
-      <c r="CX116" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY116" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ116">
-        <v>1</v>
-      </c>
-      <c r="DA116">
-        <v>1</v>
-      </c>
-      <c r="DB116">
-        <v>1</v>
-      </c>
-      <c r="DC116">
-        <v>1</v>
-      </c>
     </row>
-    <row r="117" spans="1:107">
+    <row r="117" spans="1:101">
       <c r="A117" t="s">
         <v>250</v>
       </c>
@@ -40810,26 +38726,8 @@
       <c r="CW117">
         <v>1</v>
       </c>
-      <c r="CX117" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY117" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ117">
-        <v>1</v>
-      </c>
-      <c r="DA117">
-        <v>1</v>
-      </c>
-      <c r="DB117">
-        <v>1</v>
-      </c>
-      <c r="DC117">
-        <v>1</v>
-      </c>
     </row>
-    <row r="118" spans="1:107">
+    <row r="118" spans="1:101">
       <c r="A118" t="s">
         <v>250</v>
       </c>
@@ -41133,26 +39031,8 @@
       <c r="CW118">
         <v>1</v>
       </c>
-      <c r="CX118" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY118" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ118">
-        <v>1</v>
-      </c>
-      <c r="DA118">
-        <v>1</v>
-      </c>
-      <c r="DB118">
-        <v>1</v>
-      </c>
-      <c r="DC118">
-        <v>1</v>
-      </c>
     </row>
-    <row r="119" spans="1:107">
+    <row r="119" spans="1:101">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -41456,26 +39336,8 @@
       <c r="CW119">
         <v>1</v>
       </c>
-      <c r="CX119" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY119" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ119">
-        <v>1</v>
-      </c>
-      <c r="DA119">
-        <v>1</v>
-      </c>
-      <c r="DB119">
-        <v>1</v>
-      </c>
-      <c r="DC119">
-        <v>1</v>
-      </c>
     </row>
-    <row r="120" spans="1:107">
+    <row r="120" spans="1:101">
       <c r="A120" t="s">
         <v>250</v>
       </c>
@@ -41779,26 +39641,8 @@
       <c r="CW120">
         <v>1</v>
       </c>
-      <c r="CX120" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY120" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ120">
-        <v>1</v>
-      </c>
-      <c r="DA120">
-        <v>1</v>
-      </c>
-      <c r="DB120">
-        <v>1</v>
-      </c>
-      <c r="DC120">
-        <v>1</v>
-      </c>
     </row>
-    <row r="121" spans="1:107">
+    <row r="121" spans="1:101">
       <c r="A121" t="s">
         <v>250</v>
       </c>
@@ -42102,26 +39946,8 @@
       <c r="CW121">
         <v>1</v>
       </c>
-      <c r="CX121" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY121" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ121">
-        <v>1</v>
-      </c>
-      <c r="DA121">
-        <v>1</v>
-      </c>
-      <c r="DB121">
-        <v>1</v>
-      </c>
-      <c r="DC121">
-        <v>1</v>
-      </c>
     </row>
-    <row r="122" spans="1:107">
+    <row r="122" spans="1:101">
       <c r="A122" t="s">
         <v>250</v>
       </c>
@@ -42425,26 +40251,8 @@
       <c r="CW122">
         <v>1</v>
       </c>
-      <c r="CX122" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY122" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ122">
-        <v>1</v>
-      </c>
-      <c r="DA122">
-        <v>1</v>
-      </c>
-      <c r="DB122">
-        <v>1</v>
-      </c>
-      <c r="DC122">
-        <v>1</v>
-      </c>
     </row>
-    <row r="123" spans="1:107">
+    <row r="123" spans="1:101">
       <c r="A123" t="s">
         <v>250</v>
       </c>
@@ -42748,26 +40556,8 @@
       <c r="CW123">
         <v>1</v>
       </c>
-      <c r="CX123" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY123" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ123">
-        <v>1</v>
-      </c>
-      <c r="DA123">
-        <v>1</v>
-      </c>
-      <c r="DB123">
-        <v>1</v>
-      </c>
-      <c r="DC123">
-        <v>1</v>
-      </c>
     </row>
-    <row r="124" spans="1:107">
+    <row r="124" spans="1:101">
       <c r="A124" t="s">
         <v>250</v>
       </c>
@@ -43071,26 +40861,8 @@
       <c r="CW124">
         <v>1</v>
       </c>
-      <c r="CX124" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY124" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ124">
-        <v>1</v>
-      </c>
-      <c r="DA124">
-        <v>1</v>
-      </c>
-      <c r="DB124">
-        <v>1</v>
-      </c>
-      <c r="DC124">
-        <v>1</v>
-      </c>
     </row>
-    <row r="125" spans="1:107">
+    <row r="125" spans="1:101">
       <c r="A125" t="s">
         <v>250</v>
       </c>
@@ -43394,26 +41166,8 @@
       <c r="CW125">
         <v>1</v>
       </c>
-      <c r="CX125" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY125" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ125">
-        <v>1</v>
-      </c>
-      <c r="DA125">
-        <v>1</v>
-      </c>
-      <c r="DB125">
-        <v>1</v>
-      </c>
-      <c r="DC125">
-        <v>1</v>
-      </c>
     </row>
-    <row r="126" spans="1:107">
+    <row r="126" spans="1:101">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -43717,26 +41471,8 @@
       <c r="CW126">
         <v>1</v>
       </c>
-      <c r="CX126" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY126" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ126">
-        <v>1</v>
-      </c>
-      <c r="DA126">
-        <v>1</v>
-      </c>
-      <c r="DB126">
-        <v>1</v>
-      </c>
-      <c r="DC126">
-        <v>1</v>
-      </c>
     </row>
-    <row r="127" spans="1:107">
+    <row r="127" spans="1:101">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -44040,26 +41776,8 @@
       <c r="CW127">
         <v>1</v>
       </c>
-      <c r="CX127" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY127" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ127">
-        <v>1</v>
-      </c>
-      <c r="DA127">
-        <v>1</v>
-      </c>
-      <c r="DB127">
-        <v>1</v>
-      </c>
-      <c r="DC127">
-        <v>1</v>
-      </c>
     </row>
-    <row r="128" spans="1:107">
+    <row r="128" spans="1:101">
       <c r="A128" t="s">
         <v>250</v>
       </c>
@@ -44361,24 +42079,6 @@
         <v>1</v>
       </c>
       <c r="CW128">
-        <v>1</v>
-      </c>
-      <c r="CX128" s="47">
-        <v>1</v>
-      </c>
-      <c r="CY128" s="47">
-        <v>1</v>
-      </c>
-      <c r="CZ128">
-        <v>1</v>
-      </c>
-      <c r="DA128">
-        <v>1</v>
-      </c>
-      <c r="DB128">
-        <v>1</v>
-      </c>
-      <c r="DC128">
         <v>1</v>
       </c>
     </row>
